--- a/IO_penSimMacro/RunControl_M1_PenSimMacro.xlsx
+++ b/IO_penSimMacro/RunControl_M1_PenSimMacro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_penSimMacro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_Main\IO_penSimMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9A3FAD-5FF1-453B-AF17-51C56EBF7B1C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1172,7 +1171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1430,6 +1429,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1450,9 +1452,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1869,7 +1868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1920,9 +1919,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Notes'!A1" display="Notes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" location="'Notes'!A1" display="Notes"/>
+    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl"/>
+    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1930,7 +1929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2042,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2131,14 +2130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,62 +2332,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="45" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="45" t="s">
+      <c r="P4" s="47"/>
+      <c r="Q4" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="48" t="s">
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2396,17 +2395,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="48" t="s">
+      <c r="AP4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="49" t="s">
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -2574,7 +2573,7 @@
         <v>356</v>
       </c>
       <c r="C6" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="11" t="b">
         <v>0</v>
@@ -2729,7 +2728,7 @@
         <v>356</v>
       </c>
       <c r="C7" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="11" t="b">
         <v>0</v>
@@ -2914,7 +2913,7 @@
         <v>357</v>
       </c>
       <c r="C9" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="11" t="b">
         <v>0</v>
@@ -3069,7 +3068,7 @@
         <v>357</v>
       </c>
       <c r="C10" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11" t="b">
         <v>0</v>
@@ -3376,7 +3375,7 @@
       <c r="AQ12" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR12" s="50">
+      <c r="AR12" s="43">
         <v>168732127</v>
       </c>
       <c r="AS12" s="2" t="s">
@@ -3531,7 +3530,7 @@
       <c r="AQ13" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR13" s="50">
+      <c r="AR13" s="43">
         <v>168732127</v>
       </c>
       <c r="AS13" s="2" t="s">
@@ -3716,7 +3715,7 @@
       <c r="AQ15" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR15" s="50">
+      <c r="AR15" s="43">
         <v>168732127</v>
       </c>
       <c r="AS15" s="2" t="s">
@@ -3871,7 +3870,7 @@
       <c r="AQ16" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR16" s="50">
+      <c r="AR16" s="43">
         <v>168732127</v>
       </c>
       <c r="AS16" s="2" t="s">
@@ -9426,82 +9425,82 @@
     <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN58" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN58">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI58" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI58">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH58" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH58">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS58" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS58">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P58 C6:D58" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P58 C6:D58">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="V6:V58 AB6:AB58" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="V6:V58 AB6:AB58">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X58" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X58">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AE6:AE58 Y6:AA58 AC6:AC58" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AE6:AE58 Y6:AA58 AC6:AC58">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ58" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ58">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU58" xr:uid="{00000000-0002-0000-0200-000009000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU58">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV58" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV58">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF58" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF58">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL58" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL58">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM58" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM58">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO58" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO58">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD58" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY58" xr:uid="{00000000-0002-0000-0200-000010000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD58"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY58">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP58" xr:uid="{00000000-0002-0000-0200-000011000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP58">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ58" xr:uid="{00000000-0002-0000-0200-000012000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ58">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S58" xr:uid="{00000000-0002-0000-0200-000013000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S58">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J58" xr:uid="{00000000-0002-0000-0200-000014000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J58">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -9510,37 +9509,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000015000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>L6:L58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
           <xm:sqref>M6:M58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
@@ -9553,7 +9552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9721,11 +9720,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13">
       <formula1>-1</formula1>
       <formula2>0.5</formula2>
     </dataValidation>
@@ -9735,7 +9734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9779,11 +9778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9827,7 +9826,7 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -9849,7 +9848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -10253,7 +10252,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10261,7 +10260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -10812,78 +10811,78 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40" xr:uid="{00000000-0002-0000-0700-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40" xr:uid="{00000000-0002-0000-0700-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40" xr:uid="{00000000-0002-0000-0700-000005000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40" xr:uid="{00000000-0002-0000-0700-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40" xr:uid="{00000000-0002-0000-0700-000007000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40" xr:uid="{00000000-0002-0000-0700-000008000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40" xr:uid="{00000000-0002-0000-0700-000009000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40" xr:uid="{00000000-0002-0000-0700-00000A000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40" xr:uid="{00000000-0002-0000-0700-00000B000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40" xr:uid="{00000000-0002-0000-0700-00000C000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40" xr:uid="{00000000-0002-0000-0700-00000D000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40" xr:uid="{00000000-0002-0000-0700-00000E000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40" xr:uid="{00000000-0002-0000-0700-00000F000000}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40" xr:uid="{00000000-0002-0000-0700-000011000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40" xr:uid="{00000000-0002-0000-0700-000012000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40" xr:uid="{00000000-0002-0000-0700-000013000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -10892,13 +10891,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I39:I40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000015000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
@@ -10911,7 +10910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/IO_penSimMacro/RunControl_M1_PenSimMacro.xlsx
+++ b/IO_penSimMacro/RunControl_M1_PenSimMacro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_Main\IO_penSimMacro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_penSimMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA0E81-56A6-4D01-91DE-BA661C764430}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1171,7 +1172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1432,10 +1433,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,13 +1442,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1868,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1919,9 +1920,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Notes'!A1" display="Notes"/>
-    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl"/>
-    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns"/>
+    <hyperlink ref="B2" location="'Notes'!A1" display="Notes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1929,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2041,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2130,10 +2131,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -2332,62 +2333,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="46" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="46" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="47" t="s">
+      <c r="AA4" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="49" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="44" t="s">
+      <c r="AH4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2395,17 +2396,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="49" t="s">
+      <c r="AP4" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="50" t="s">
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -9412,95 +9413,95 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN58" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI58" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH58" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS58" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P58 C6:D58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P58 C6:D58" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="V6:V58 AB6:AB58">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="V6:V58 AB6:AB58" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X58">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X58" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AE6:AE58 Y6:AA58 AC6:AC58">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AE6:AE58 Y6:AA58 AC6:AC58" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ58">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ58" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU58">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU58" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV58">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV58" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF58">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF58" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL58">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL58" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM58">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM58" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO58">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO58" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD58"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY58">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD58" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY58" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP58" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ58">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ58" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S58">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S58" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J58" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -9509,37 +9510,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000015000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>L6:L58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
           <xm:sqref>M6:M58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
@@ -9552,7 +9553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9720,11 +9721,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-1</formula1>
       <formula2>0.5</formula2>
     </dataValidation>
@@ -9734,7 +9735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9778,11 +9779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9826,7 +9827,7 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -9848,7 +9849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -10252,7 +10253,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10260,7 +10261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -10811,78 +10812,78 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40" xr:uid="{00000000-0002-0000-0700-00000D000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40" xr:uid="{00000000-0002-0000-0700-00000E000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40" xr:uid="{00000000-0002-0000-0700-000011000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40" xr:uid="{00000000-0002-0000-0700-000012000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40" xr:uid="{00000000-0002-0000-0700-000013000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -10891,13 +10892,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I39:I40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000015000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
@@ -10910,7 +10911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/IO_penSimMacro/RunControl_M1_PenSimMacro.xlsx
+++ b/IO_penSimMacro/RunControl_M1_PenSimMacro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_penSimMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA0E81-56A6-4D01-91DE-BA661C764430}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D74EF-A7BF-4707-BD4E-D0E72B567548}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="370">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1145,28 +1145,40 @@
     <t>75% initial Funding; Open 30-year cp, 5-year smoothing, normal distribution, same mean and sd as the 70/30 portfolio</t>
   </si>
   <si>
-    <t>A_O30pA5_port70_30</t>
-  </si>
-  <si>
-    <t>A_C15d_normal</t>
-  </si>
-  <si>
-    <t>B_O30pA5_port70_30</t>
-  </si>
-  <si>
-    <t>B_C15d_normal</t>
-  </si>
-  <si>
-    <t>A_O30pA5_normal</t>
-  </si>
-  <si>
-    <t>A_C15d_port70_30</t>
-  </si>
-  <si>
-    <t>B_O30pA5_normal</t>
-  </si>
-  <si>
-    <t>B_C15d_port70_30</t>
+    <t>A_O15d_port70_30</t>
+  </si>
+  <si>
+    <t>B_O15d_port70_30</t>
+  </si>
+  <si>
+    <t>B_O15d_normal</t>
+  </si>
+  <si>
+    <t>A_O15d_normal</t>
+  </si>
+  <si>
+    <t>A_O10d_port70_30</t>
+  </si>
+  <si>
+    <t>A_O10d_normal</t>
+  </si>
+  <si>
+    <t>B_O10d_port70_30</t>
+  </si>
+  <si>
+    <t>B_O10d_normal</t>
+  </si>
+  <si>
+    <t>A_O30p_port70_30</t>
+  </si>
+  <si>
+    <t>A_O30p_normal</t>
+  </si>
+  <si>
+    <t>B_O30p_port70_30</t>
+  </si>
+  <si>
+    <t>B_O30p_normal</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1445,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,16 +1457,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2132,13 +2144,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AY58"/>
+  <dimension ref="A1:AY65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,62 +2345,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="45" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="45" t="s">
+      <c r="P4" s="47"/>
+      <c r="Q4" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="44" t="s">
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="47" t="s">
+      <c r="AH4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2396,17 +2408,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="44" t="s">
+      <c r="AP4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="48" t="s">
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -2568,13 +2580,13 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>356</v>
       </c>
       <c r="C6" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11" t="b">
         <v>0</v>
@@ -2610,7 +2622,7 @@
         <v>198</v>
       </c>
       <c r="O6" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P6" s="18" t="b">
         <v>0</v>
@@ -2723,13 +2735,13 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>356</v>
       </c>
       <c r="C7" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11" t="b">
         <v>0</v>
@@ -2765,7 +2777,7 @@
         <v>198</v>
       </c>
       <c r="O7" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P7" s="18" t="b">
         <v>0</v>
@@ -2908,13 +2920,13 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>357</v>
       </c>
       <c r="C9" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11" t="b">
         <v>0</v>
@@ -2950,7 +2962,7 @@
         <v>198</v>
       </c>
       <c r="O9" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P9" s="18" t="b">
         <v>0</v>
@@ -3007,7 +3019,7 @@
         <v>112</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="AI9" s="2" t="s">
         <v>178</v>
@@ -3063,13 +3075,13 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>357</v>
       </c>
       <c r="C10" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="11" t="b">
         <v>0</v>
@@ -3105,7 +3117,7 @@
         <v>198</v>
       </c>
       <c r="O10" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P10" s="18" t="b">
         <v>0</v>
@@ -3162,7 +3174,7 @@
         <v>112</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>178</v>
@@ -3248,13 +3260,13 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C12" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="11" t="b">
         <v>0</v>
@@ -3290,7 +3302,7 @@
         <v>198</v>
       </c>
       <c r="O12" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P12" s="18" t="b">
         <v>0</v>
@@ -3332,7 +3344,7 @@
         <v>0.01</v>
       </c>
       <c r="AC12" s="26">
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD12" s="26" t="s">
         <v>354</v>
@@ -3350,10 +3362,10 @@
         <v>158</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="AJ12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="s">
         <v>115</v>
@@ -3371,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AQ12" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR12" s="43">
-        <v>168732127</v>
+      <c r="AR12">
+        <v>200</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>113</v>
@@ -3403,13 +3415,13 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C13" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="11" t="b">
         <v>0</v>
@@ -3445,7 +3457,7 @@
         <v>198</v>
       </c>
       <c r="O13" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P13" s="18" t="b">
         <v>0</v>
@@ -3487,7 +3499,7 @@
         <v>0.01</v>
       </c>
       <c r="AC13" s="26">
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD13" s="26" t="s">
         <v>355</v>
@@ -3505,10 +3517,10 @@
         <v>158</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="AJ13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="s">
         <v>115</v>
@@ -3526,13 +3538,13 @@
         <v>1</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AQ13" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR13" s="43">
-        <v>168732127</v>
+      <c r="AR13">
+        <v>200</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>113</v>
@@ -3587,169 +3599,44 @@
       <c r="AY14" s="18"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>500</v>
-      </c>
-      <c r="I15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>204</v>
-      </c>
-      <c r="L15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M15" t="s">
-        <v>211</v>
-      </c>
-      <c r="N15" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="26">
-        <v>0</v>
-      </c>
-      <c r="P15" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
-        <v>75</v>
-      </c>
-      <c r="T15">
-        <v>50</v>
-      </c>
-      <c r="U15">
-        <v>60</v>
-      </c>
-      <c r="V15" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="Z15" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA15" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="AB15" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC15" s="26">
-        <v>0.06</v>
-      </c>
-      <c r="AD15" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE15" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF15" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ15">
-        <v>15</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL15">
-        <v>5</v>
-      </c>
-      <c r="AM15">
-        <v>200</v>
-      </c>
-      <c r="AN15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ15" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR15" s="43">
-        <v>168732127</v>
-      </c>
-      <c r="AS15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT15" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU15" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV15" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW15" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="A15" s="36"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="26"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="17"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C16" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="11" t="b">
         <v>0</v>
@@ -3785,7 +3672,7 @@
         <v>198</v>
       </c>
       <c r="O16" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P16" s="18" t="b">
         <v>0</v>
@@ -3830,7 +3717,7 @@
         <v>0.06</v>
       </c>
       <c r="AD16" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AE16" s="41">
         <v>8.2199999999999995E-2</v>
@@ -3842,13 +3729,13 @@
         <v>112</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="AJ16">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="s">
         <v>115</v>
@@ -3897,197 +3784,196 @@
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="26"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="17"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="18"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="18"/>
+      <c r="A17" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>500</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>75</v>
+      </c>
+      <c r="T17">
+        <v>50</v>
+      </c>
+      <c r="U17">
+        <v>60</v>
+      </c>
+      <c r="V17" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="Z17" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="AB17" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC17" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="AD17" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE17" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF17" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ17">
+        <v>30</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL17">
+        <v>5</v>
+      </c>
+      <c r="AM17">
+        <v>200</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ17" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR17" s="43">
+        <v>168732127</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT17" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU17" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV17" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>500</v>
-      </c>
-      <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" t="s">
-        <v>204</v>
-      </c>
-      <c r="L18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M18" t="s">
-        <v>211</v>
-      </c>
-      <c r="N18" t="s">
-        <v>198</v>
-      </c>
-      <c r="O18" s="26">
-        <v>0</v>
-      </c>
-      <c r="P18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R18">
-        <v>3</v>
-      </c>
-      <c r="S18">
-        <v>75</v>
-      </c>
-      <c r="T18">
-        <v>50</v>
-      </c>
-      <c r="U18">
-        <v>60</v>
-      </c>
-      <c r="V18" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>10</v>
-      </c>
-      <c r="Y18" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z18" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA18" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB18" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC18" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE18" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF18" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL18">
-        <v>5</v>
-      </c>
-      <c r="AM18">
-        <v>200</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ18" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR18">
-        <v>200</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU18" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV18" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="A18" s="36"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="26"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="17"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>223</v>
+      <c r="A19" s="36" t="s">
+        <v>359</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>224</v>
+        <v>357</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
@@ -4126,7 +4012,7 @@
         <v>198</v>
       </c>
       <c r="O19" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P19" s="18" t="b">
         <v>0</v>
@@ -4156,22 +4042,22 @@
         <v>10</v>
       </c>
       <c r="Y19" s="26">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Z19" s="26">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AA19" s="26">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AB19" s="26">
         <v>0.01</v>
       </c>
       <c r="AC19" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AD19" s="26" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="AE19" s="41">
         <v>8.2199999999999995E-2</v>
@@ -4189,10 +4075,10 @@
         <v>178</v>
       </c>
       <c r="AJ19">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AL19">
         <v>5</v>
@@ -4207,13 +4093,13 @@
         <v>1</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AQ19" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR19">
-        <v>200</v>
+      <c r="AR19" s="43">
+        <v>168732127</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>113</v>
@@ -4238,11 +4124,11 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>225</v>
+      <c r="A20" s="36" t="s">
+        <v>360</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="C20" s="11" t="b">
         <v>0</v>
@@ -4281,7 +4167,7 @@
         <v>198</v>
       </c>
       <c r="O20" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P20" s="18" t="b">
         <v>0</v>
@@ -4311,22 +4197,22 @@
         <v>10</v>
       </c>
       <c r="Y20" s="26">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Z20" s="26">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AA20" s="26">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AB20" s="26">
         <v>0.01</v>
       </c>
       <c r="AC20" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AD20" s="26" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="AE20" s="41">
         <v>8.2199999999999995E-2</v>
@@ -4347,7 +4233,7 @@
         <v>15</v>
       </c>
       <c r="AK20" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AL20">
         <v>5</v>
@@ -4362,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AQ20" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR20">
-        <v>200</v>
+      <c r="AR20" s="43">
+        <v>168732127</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>113</v>
@@ -4393,166 +4279,41 @@
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21">
-        <v>500</v>
-      </c>
-      <c r="I21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" t="s">
-        <v>204</v>
-      </c>
-      <c r="L21" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" t="s">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s">
-        <v>198</v>
-      </c>
-      <c r="O21" s="26">
-        <v>0</v>
-      </c>
-      <c r="P21" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <v>75</v>
-      </c>
-      <c r="T21">
-        <v>50</v>
-      </c>
-      <c r="U21">
-        <v>60</v>
-      </c>
-      <c r="V21" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z21" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA21" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB21" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC21" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD21" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE21" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF21" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ21">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL21">
-        <v>5</v>
-      </c>
-      <c r="AM21">
-        <v>200</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ21" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR21">
-        <v>200</v>
-      </c>
-      <c r="AS21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU21" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV21" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW21" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY21" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="A21" s="36"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="26"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="17"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>229</v>
+      <c r="A22" s="36" t="s">
+        <v>364</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>230</v>
+        <v>357</v>
       </c>
       <c r="C22" s="11" t="b">
         <v>0</v>
@@ -4591,7 +4352,7 @@
         <v>198</v>
       </c>
       <c r="O22" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P22" s="18" t="b">
         <v>0</v>
@@ -4621,22 +4382,22 @@
         <v>10</v>
       </c>
       <c r="Y22" s="26">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Z22" s="26">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AA22" s="26">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AB22" s="26">
         <v>0.01</v>
       </c>
       <c r="AC22" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AD22" s="26" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="AE22" s="41">
         <v>8.2199999999999995E-2</v>
@@ -4654,10 +4415,10 @@
         <v>178</v>
       </c>
       <c r="AJ22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AL22">
         <v>5</v>
@@ -4672,13 +4433,13 @@
         <v>1</v>
       </c>
       <c r="AP22" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AQ22" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR22">
-        <v>200</v>
+      <c r="AR22" s="43">
+        <v>168732127</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>113</v>
@@ -4703,11 +4464,11 @@
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>231</v>
+      <c r="A23" s="36" t="s">
+        <v>365</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>232</v>
+        <v>357</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
@@ -4746,7 +4507,7 @@
         <v>198</v>
       </c>
       <c r="O23" s="26">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P23" s="18" t="b">
         <v>0</v>
@@ -4776,22 +4537,22 @@
         <v>10</v>
       </c>
       <c r="Y23" s="26">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Z23" s="26">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AA23" s="26">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AB23" s="26">
         <v>0.01</v>
       </c>
       <c r="AC23" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AD23" s="26" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="AE23" s="41">
         <v>8.2199999999999995E-2</v>
@@ -4806,13 +4567,13 @@
         <v>158</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="AJ23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AL23">
         <v>5</v>
@@ -4827,13 +4588,13 @@
         <v>1</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AQ23" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR23">
-        <v>200</v>
+      <c r="AR23" s="43">
+        <v>168732127</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>113</v>
@@ -4858,166 +4619,42 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>207</v>
-      </c>
-      <c r="F24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-      <c r="H24">
-        <v>500</v>
-      </c>
-      <c r="I24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" t="s">
-        <v>204</v>
-      </c>
-      <c r="L24" t="s">
-        <v>167</v>
-      </c>
-      <c r="M24" t="s">
-        <v>211</v>
-      </c>
-      <c r="N24" t="s">
-        <v>198</v>
-      </c>
-      <c r="O24" s="26">
-        <v>0</v>
-      </c>
-      <c r="P24" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R24">
-        <v>3</v>
-      </c>
-      <c r="S24">
-        <v>75</v>
-      </c>
-      <c r="T24">
-        <v>50</v>
-      </c>
-      <c r="U24">
-        <v>60</v>
-      </c>
-      <c r="V24" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>10</v>
-      </c>
-      <c r="Y24" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z24" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA24" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB24" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC24" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD24" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE24" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF24" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ24">
-        <v>10</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL24">
-        <v>5</v>
-      </c>
-      <c r="AM24">
-        <v>200</v>
-      </c>
-      <c r="AN24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO24">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ24" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR24">
-        <v>200</v>
-      </c>
-      <c r="AS24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT24" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU24" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV24" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW24" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY24" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B24" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="26"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="17"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="18"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="18"/>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C25" s="11" t="b">
         <v>0</v>
@@ -5113,13 +4750,13 @@
         <v>112</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="AI25" s="2" t="s">
         <v>178</v>
       </c>
       <c r="AJ25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="s">
         <v>142</v>
@@ -5161,18 +4798,18 @@
         <v>0</v>
       </c>
       <c r="AX25" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>237</v>
+      <c r="A26" s="34" t="s">
+        <v>223</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C26" s="11" t="b">
         <v>0</v>
@@ -5268,13 +4905,13 @@
         <v>112</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="AJ26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AK26" t="s">
         <v>142</v>
@@ -5323,11 +4960,11 @@
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>239</v>
+      <c r="A27" s="34" t="s">
+        <v>225</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
@@ -5423,13 +5060,13 @@
         <v>112</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="AI27" s="2" t="s">
         <v>178</v>
       </c>
       <c r="AJ27">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="s">
         <v>142</v>
@@ -5479,10 +5116,10 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
@@ -5578,13 +5215,13 @@
         <v>112</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="AI28" s="2" t="s">
         <v>343</v>
       </c>
       <c r="AJ28">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="s">
         <v>142</v>
@@ -5633,40 +5270,166 @@
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="26"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="17"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="18"/>
-      <c r="AX29" s="18"/>
-      <c r="AY29" s="18"/>
+      <c r="A29" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29">
+        <v>500</v>
+      </c>
+      <c r="I29" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29" t="s">
+        <v>211</v>
+      </c>
+      <c r="N29" t="s">
+        <v>198</v>
+      </c>
+      <c r="O29" s="26">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>75</v>
+      </c>
+      <c r="T29">
+        <v>50</v>
+      </c>
+      <c r="U29">
+        <v>60</v>
+      </c>
+      <c r="V29" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z29" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA29" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB29" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC29" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD29" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE29" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF29" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ29">
+        <v>30</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL29">
+        <v>5</v>
+      </c>
+      <c r="AM29">
+        <v>200</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ29" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR29">
+        <v>200</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT29" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU29" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV29" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW29" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>243</v>
+      <c r="A30" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C30" s="11" t="b">
         <v>0</v>
@@ -5765,13 +5528,13 @@
         <v>158</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="AJ30">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AK30" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AL30">
         <v>5</v>
@@ -5817,11 +5580,11 @@
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>245</v>
+      <c r="A31" s="36" t="s">
+        <v>233</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -5917,19 +5680,19 @@
         <v>112</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="AI31" s="2" t="s">
         <v>178</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AL31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AM31">
         <v>200</v>
@@ -5972,11 +5735,11 @@
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>247</v>
+      <c r="A32" t="s">
+        <v>235</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>0</v>
@@ -6072,16 +5835,16 @@
         <v>112</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="AJ32">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK32" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AL32">
         <v>5</v>
@@ -6128,10 +5891,10 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C33" s="11" t="b">
         <v>0</v>
@@ -6227,19 +5990,19 @@
         <v>112</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="AI33" s="2" t="s">
         <v>343</v>
       </c>
       <c r="AJ33">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK33" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AL33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AM33">
         <v>200</v>
@@ -6282,11 +6045,11 @@
       </c>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>251</v>
+      <c r="A34" t="s">
+        <v>239</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C34" s="11" t="b">
         <v>0</v>
@@ -6385,13 +6148,13 @@
         <v>342</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="AJ34">
         <v>30</v>
       </c>
       <c r="AK34" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AL34">
         <v>5</v>
@@ -6438,10 +6201,10 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>345</v>
+        <v>241</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>346</v>
+        <v>242</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
@@ -6546,10 +6309,10 @@
         <v>30</v>
       </c>
       <c r="AK35" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AL35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AM35">
         <v>200</v>
@@ -6592,194 +6355,195 @@
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36">
-        <v>1000</v>
-      </c>
-      <c r="H36">
-        <v>500</v>
-      </c>
-      <c r="I36" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" t="s">
-        <v>109</v>
-      </c>
-      <c r="K36" t="s">
-        <v>204</v>
-      </c>
-      <c r="L36" t="s">
-        <v>167</v>
-      </c>
-      <c r="M36" t="s">
-        <v>211</v>
-      </c>
-      <c r="N36" t="s">
-        <v>198</v>
-      </c>
-      <c r="O36" s="26">
-        <v>0</v>
-      </c>
-      <c r="P36" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R36">
-        <v>3</v>
-      </c>
-      <c r="S36">
-        <v>75</v>
-      </c>
-      <c r="T36">
-        <v>50</v>
-      </c>
-      <c r="U36">
-        <v>60</v>
-      </c>
-      <c r="V36" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>10</v>
-      </c>
-      <c r="Y36" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z36" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA36" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB36" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC36" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD36" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE36" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF36" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH36" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI36" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ36">
-        <v>30</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL36">
-        <v>5</v>
-      </c>
-      <c r="AM36">
-        <v>200</v>
-      </c>
-      <c r="AN36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO36">
-        <v>1</v>
-      </c>
-      <c r="AP36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ36" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR36">
-        <v>200</v>
-      </c>
-      <c r="AS36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT36" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU36" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV36" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW36" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY36" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="26"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="17"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="26"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="17"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
-      <c r="AV37" s="12"/>
-      <c r="AW37" s="18"/>
-      <c r="AX37" s="18"/>
-      <c r="AY37" s="18"/>
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>500</v>
+      </c>
+      <c r="I37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" t="s">
+        <v>204</v>
+      </c>
+      <c r="L37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M37" t="s">
+        <v>211</v>
+      </c>
+      <c r="N37" t="s">
+        <v>198</v>
+      </c>
+      <c r="O37" s="26">
+        <v>0</v>
+      </c>
+      <c r="P37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>75</v>
+      </c>
+      <c r="T37">
+        <v>50</v>
+      </c>
+      <c r="U37">
+        <v>60</v>
+      </c>
+      <c r="V37" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA37" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB37" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC37" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD37" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE37" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF37" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL37">
+        <v>5</v>
+      </c>
+      <c r="AM37">
+        <v>200</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ37" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR37">
+        <v>200</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU37" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV37" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY37" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>255</v>
+      <c r="A38" t="s">
+        <v>245</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C38" s="11" t="b">
         <v>0</v>
@@ -6860,7 +6624,7 @@
         <v>0.01</v>
       </c>
       <c r="AC38" s="26">
-        <v>6.4000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD38" s="26" t="s">
         <v>156</v>
@@ -6878,16 +6642,16 @@
         <v>158</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="AJ38">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AK38" t="s">
         <v>115</v>
       </c>
       <c r="AL38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AM38">
         <v>200</v>
@@ -6899,14 +6663,13 @@
         <v>1</v>
       </c>
       <c r="AP38" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AQ38" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR38" s="25">
-        <f>225068282*0.75</f>
-        <v>168801211.5</v>
+      <c r="AR38">
+        <v>200</v>
       </c>
       <c r="AS38" s="2" t="s">
         <v>113</v>
@@ -6931,14 +6694,14 @@
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>257</v>
+      <c r="A39" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C39" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="11" t="b">
         <v>0</v>
@@ -7016,13 +6779,13 @@
         <v>0.01</v>
       </c>
       <c r="AC39" s="26">
-        <v>6.4000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD39" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE39" s="41">
-        <v>7.1199999999999999E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF39" s="26">
         <v>0.12</v>
@@ -7037,7 +6800,7 @@
         <v>343</v>
       </c>
       <c r="AJ39">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AK39" t="s">
         <v>115</v>
@@ -7055,14 +6818,13 @@
         <v>1</v>
       </c>
       <c r="AP39" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AQ39" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR39" s="25">
-        <f t="shared" ref="AR39:AR43" si="0">225068282*0.75</f>
-        <v>168801211.5</v>
+      <c r="AR39">
+        <v>200</v>
       </c>
       <c r="AS39" s="2" t="s">
         <v>113</v>
@@ -7088,10 +6850,10 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>352</v>
+        <v>249</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C40" s="11" t="b">
         <v>0</v>
@@ -7172,13 +6934,13 @@
         <v>0.01</v>
       </c>
       <c r="AC40" s="26">
-        <v>6.4000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD40" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE40" s="41">
-        <v>6.4000000000000001E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF40" s="26">
         <v>0.12</v>
@@ -7193,13 +6955,13 @@
         <v>343</v>
       </c>
       <c r="AJ40">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AK40" t="s">
         <v>115</v>
       </c>
       <c r="AL40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AM40">
         <v>200</v>
@@ -7211,14 +6973,13 @@
         <v>1</v>
       </c>
       <c r="AP40" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AQ40" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR40" s="25">
-        <f t="shared" si="0"/>
-        <v>168801211.5</v>
+      <c r="AR40">
+        <v>200</v>
       </c>
       <c r="AS40" s="2" t="s">
         <v>113</v>
@@ -7243,11 +7004,11 @@
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>261</v>
+      <c r="A41" s="34" t="s">
+        <v>251</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C41" s="11" t="b">
         <v>0</v>
@@ -7328,7 +7089,7 @@
         <v>0.01</v>
       </c>
       <c r="AC41" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD41" s="26" t="s">
         <v>156</v>
@@ -7343,13 +7104,13 @@
         <v>112</v>
       </c>
       <c r="AH41" s="2" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="AI41" s="2" t="s">
         <v>343</v>
       </c>
       <c r="AJ41">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AK41" t="s">
         <v>115</v>
@@ -7367,14 +7128,13 @@
         <v>1</v>
       </c>
       <c r="AP41" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AQ41" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR41" s="25">
-        <f t="shared" si="0"/>
-        <v>168801211.5</v>
+      <c r="AR41">
+        <v>200</v>
       </c>
       <c r="AS41" s="2" t="s">
         <v>113</v>
@@ -7399,11 +7159,11 @@
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>264</v>
+      <c r="A42" s="34" t="s">
+        <v>345</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="C42" s="11" t="b">
         <v>0</v>
@@ -7484,13 +7244,13 @@
         <v>0.01</v>
       </c>
       <c r="AC42" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD42" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE42" s="41">
-        <v>6.6199999999999995E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF42" s="26">
         <v>0.12</v>
@@ -7499,19 +7259,19 @@
         <v>112</v>
       </c>
       <c r="AH42" s="2" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="AI42" s="2" t="s">
         <v>343</v>
       </c>
       <c r="AJ42">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AK42" t="s">
         <v>115</v>
       </c>
       <c r="AL42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AM42">
         <v>200</v>
@@ -7523,14 +7283,13 @@
         <v>1</v>
       </c>
       <c r="AP42" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AQ42" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR42" s="25">
-        <f t="shared" si="0"/>
-        <v>168801211.5</v>
+      <c r="AR42">
+        <v>200</v>
       </c>
       <c r="AS42" s="2" t="s">
         <v>113</v>
@@ -7556,10 +7315,10 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
@@ -7640,13 +7399,13 @@
         <v>0.01</v>
       </c>
       <c r="AC43" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD43" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE43" s="41">
-        <v>5.8999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF43" s="26">
         <v>0.12</v>
@@ -7661,7 +7420,7 @@
         <v>343</v>
       </c>
       <c r="AJ43">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AK43" t="s">
         <v>115</v>
@@ -7679,14 +7438,13 @@
         <v>1</v>
       </c>
       <c r="AP43" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AQ43" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR43" s="25">
-        <f t="shared" si="0"/>
-        <v>168801211.5</v>
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>200</v>
       </c>
       <c r="AS43" s="2" t="s">
         <v>113</v>
@@ -7711,7 +7469,6 @@
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="O44" s="26"/>
@@ -7731,7 +7488,6 @@
       <c r="AN44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="17"/>
-      <c r="AR44" s="25"/>
       <c r="AS44" s="2"/>
       <c r="AT44" s="12"/>
       <c r="AU44" s="12"/>
@@ -7741,11 +7497,11 @@
       <c r="AY44" s="18"/>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>349</v>
+      <c r="A45" s="36" t="s">
+        <v>255</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C45" s="11" t="b">
         <v>0</v>
@@ -7826,7 +7582,7 @@
         <v>0.01</v>
       </c>
       <c r="AC45" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD45" s="26" t="s">
         <v>156</v>
@@ -7847,7 +7603,7 @@
         <v>343</v>
       </c>
       <c r="AJ45">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK45" t="s">
         <v>115</v>
@@ -7865,19 +7621,20 @@
         <v>1</v>
       </c>
       <c r="AP45" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AQ45" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR45">
-        <v>200</v>
+      <c r="AR45" s="25">
+        <f>225068282*0.75</f>
+        <v>168801211.5</v>
       </c>
       <c r="AS45" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="AT45" s="12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AU45" s="12">
         <v>0.14499999999999999</v>
@@ -7896,11 +7653,11 @@
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>347</v>
+      <c r="A46" t="s">
+        <v>257</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C46" s="11" t="b">
         <v>0</v>
@@ -7987,7 +7744,7 @@
         <v>156</v>
       </c>
       <c r="AE46" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="AF46" s="26">
         <v>0.12</v>
@@ -8026,14 +7783,14 @@
         <v>0.75</v>
       </c>
       <c r="AR46" s="25">
-        <f>225068282*0.75</f>
+        <f t="shared" ref="AR46:AR50" si="0">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
       <c r="AS46" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="AT46" s="12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AU46" s="12">
         <v>0.14499999999999999</v>
@@ -8052,11 +7809,11 @@
       </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>348</v>
+      <c r="A47" t="s">
+        <v>352</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -8137,13 +7894,13 @@
         <v>0.01</v>
       </c>
       <c r="AC47" s="26">
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD47" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE47" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AF47" s="26">
         <v>0.12</v>
@@ -8182,14 +7939,14 @@
         <v>0.75</v>
       </c>
       <c r="AR47" s="25">
-        <f t="shared" ref="AR47" si="1">225068282*0.75</f>
+        <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
       <c r="AS47" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="AT47" s="12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AU47" s="12">
         <v>0.14499999999999999</v>
@@ -8208,70 +7965,323 @@
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="41"/>
-      <c r="AF48" s="26"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AP48" s="2"/>
-      <c r="AQ48" s="17"/>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="12"/>
-      <c r="AU48" s="12"/>
-      <c r="AV48" s="12"/>
-      <c r="AW48" s="18"/>
-      <c r="AX48" s="18"/>
-      <c r="AY48" s="18"/>
+      <c r="A48" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>500</v>
+      </c>
+      <c r="I48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" t="s">
+        <v>204</v>
+      </c>
+      <c r="L48" t="s">
+        <v>167</v>
+      </c>
+      <c r="M48" t="s">
+        <v>211</v>
+      </c>
+      <c r="N48" t="s">
+        <v>198</v>
+      </c>
+      <c r="O48" s="26">
+        <v>0</v>
+      </c>
+      <c r="P48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>75</v>
+      </c>
+      <c r="T48">
+        <v>50</v>
+      </c>
+      <c r="U48">
+        <v>60</v>
+      </c>
+      <c r="V48" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z48" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA48" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB48" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC48" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AD48" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE48" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF48" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI48" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ48">
+        <v>15</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL48">
+        <v>5</v>
+      </c>
+      <c r="AM48">
+        <v>200</v>
+      </c>
+      <c r="AN48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ48" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR48" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AS48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT48" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU48" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV48" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY48" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B49" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="26"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="17"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="12"/>
-      <c r="AU49" s="12"/>
-      <c r="AV49" s="12"/>
-      <c r="AW49" s="18"/>
-      <c r="AX49" s="18"/>
-      <c r="AY49" s="18"/>
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F49" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>500</v>
+      </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
+        <v>204</v>
+      </c>
+      <c r="L49" t="s">
+        <v>167</v>
+      </c>
+      <c r="M49" t="s">
+        <v>211</v>
+      </c>
+      <c r="N49" t="s">
+        <v>198</v>
+      </c>
+      <c r="O49" s="26">
+        <v>0</v>
+      </c>
+      <c r="P49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>75</v>
+      </c>
+      <c r="T49">
+        <v>50</v>
+      </c>
+      <c r="U49">
+        <v>60</v>
+      </c>
+      <c r="V49" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z49" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA49" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB49" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC49" s="26">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AD49" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE49" s="41">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="AF49" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI49" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ49">
+        <v>15</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL49">
+        <v>5</v>
+      </c>
+      <c r="AM49">
+        <v>200</v>
+      </c>
+      <c r="AN49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ49" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR49" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AS49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT49" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU49" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV49" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY49" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="C50" s="11" t="b">
         <v>0</v>
@@ -8352,13 +8362,13 @@
         <v>0.01</v>
       </c>
       <c r="AC50" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AD50" s="26" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="AE50" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AF50" s="26">
         <v>0.12</v>
@@ -8370,13 +8380,13 @@
         <v>158</v>
       </c>
       <c r="AI50" s="2" t="s">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="AJ50">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK50" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AL50">
         <v>5</v>
@@ -8391,13 +8401,14 @@
         <v>1</v>
       </c>
       <c r="AP50" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AQ50" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR50">
-        <v>200</v>
+      <c r="AR50" s="25">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
       </c>
       <c r="AS50" s="2" t="s">
         <v>113</v>
@@ -8422,166 +8433,41 @@
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C51" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51">
-        <v>1000</v>
-      </c>
-      <c r="H51">
-        <v>500</v>
-      </c>
-      <c r="I51" t="s">
-        <v>109</v>
-      </c>
-      <c r="J51" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51" t="s">
-        <v>204</v>
-      </c>
-      <c r="L51" t="s">
-        <v>167</v>
-      </c>
-      <c r="M51" t="s">
-        <v>211</v>
-      </c>
-      <c r="N51" t="s">
-        <v>198</v>
-      </c>
-      <c r="O51" s="26">
-        <v>0</v>
-      </c>
-      <c r="P51" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R51">
-        <v>3</v>
-      </c>
-      <c r="S51">
-        <v>75</v>
-      </c>
-      <c r="T51">
-        <v>50</v>
-      </c>
-      <c r="U51">
-        <v>60</v>
-      </c>
-      <c r="V51" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>10</v>
-      </c>
-      <c r="Y51" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z51" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA51" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB51" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC51" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD51" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE51" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF51" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH51" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI51" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ51">
-        <v>30</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL51">
-        <v>5</v>
-      </c>
-      <c r="AM51">
-        <v>200</v>
-      </c>
-      <c r="AN51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO51">
-        <v>1</v>
-      </c>
-      <c r="AP51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ51" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR51">
-        <v>200</v>
-      </c>
-      <c r="AS51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT51" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU51" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV51" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW51" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY51" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="26"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="17"/>
+      <c r="AR51" s="25"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
-        <v>273</v>
+      <c r="A52" t="s">
+        <v>349</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C52" s="11" t="b">
         <v>0</v>
@@ -8665,7 +8551,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD52" s="26" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="AE52" s="41">
         <v>8.2199999999999995E-2</v>
@@ -8710,10 +8596,10 @@
         <v>200</v>
       </c>
       <c r="AS52" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="AT52" s="12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU52" s="12">
         <v>0.14499999999999999</v>
@@ -8732,11 +8618,11 @@
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>344</v>
+      <c r="A53" s="36" t="s">
+        <v>347</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C53" s="11" t="b">
         <v>0</v>
@@ -8817,10 +8703,10 @@
         <v>0.01</v>
       </c>
       <c r="AC53" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD53" s="26" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="AE53" s="41">
         <v>8.2199999999999995E-2</v>
@@ -8838,13 +8724,13 @@
         <v>343</v>
       </c>
       <c r="AJ53">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK53" t="s">
         <v>115</v>
       </c>
       <c r="AL53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AM53">
         <v>200</v>
@@ -8856,19 +8742,20 @@
         <v>1</v>
       </c>
       <c r="AP53" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AQ53" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR53">
-        <v>200</v>
+      <c r="AR53" s="25">
+        <f>225068282*0.75</f>
+        <v>168801211.5</v>
       </c>
       <c r="AS53" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="AT53" s="12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU53" s="12">
         <v>0.14499999999999999</v>
@@ -8887,11 +8774,11 @@
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
-        <v>277</v>
+      <c r="A54" s="37" t="s">
+        <v>348</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C54" s="11" t="b">
         <v>0</v>
@@ -8972,10 +8859,10 @@
         <v>0.01</v>
       </c>
       <c r="AC54" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AD54" s="26" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="AE54" s="41">
         <v>8.2199999999999995E-2</v>
@@ -8993,7 +8880,7 @@
         <v>343</v>
       </c>
       <c r="AJ54">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK54" t="s">
         <v>115</v>
@@ -9011,19 +8898,20 @@
         <v>1</v>
       </c>
       <c r="AP54" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AQ54" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR54">
-        <v>200</v>
+        <v>0.75</v>
+      </c>
+      <c r="AR54" s="25">
+        <f t="shared" ref="AR54" si="1">225068282*0.75</f>
+        <v>168801211.5</v>
       </c>
       <c r="AS54" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="AT54" s="12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU54" s="12">
         <v>0.14499999999999999</v>
@@ -9042,7 +8930,6 @@
       </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="O55" s="26"/>
@@ -9071,8 +8958,8 @@
       <c r="AY55" s="18"/>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B56" s="31" t="s">
-        <v>279</v>
+      <c r="B56" s="39" t="s">
+        <v>268</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -9102,11 +8989,11 @@
       <c r="AY56" s="18"/>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
-        <v>280</v>
+      <c r="A57" t="s">
+        <v>269</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C57" s="11" t="b">
         <v>0</v>
@@ -9190,10 +9077,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD57" s="26" t="s">
-        <v>156</v>
+        <v>341</v>
       </c>
       <c r="AE57" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF57" s="26">
         <v>0.12</v>
@@ -9205,13 +9092,13 @@
         <v>158</v>
       </c>
       <c r="AI57" s="2" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="AJ57">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AK57" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AL57">
         <v>5</v>
@@ -9258,10 +9145,10 @@
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C58" s="11" t="b">
         <v>0</v>
@@ -9345,7 +9232,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD58" s="26" t="s">
-        <v>156</v>
+        <v>341</v>
       </c>
       <c r="AE58" s="41">
         <v>8.2199999999999995E-2</v>
@@ -9366,7 +9253,7 @@
         <v>30</v>
       </c>
       <c r="AK58" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AL58">
         <v>5</v>
@@ -9408,100 +9295,935 @@
         <v>1</v>
       </c>
       <c r="AY58" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>207</v>
+      </c>
+      <c r="F59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>500</v>
+      </c>
+      <c r="I59" t="s">
+        <v>109</v>
+      </c>
+      <c r="J59" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59" t="s">
+        <v>204</v>
+      </c>
+      <c r="L59" t="s">
+        <v>167</v>
+      </c>
+      <c r="M59" t="s">
+        <v>211</v>
+      </c>
+      <c r="N59" t="s">
+        <v>198</v>
+      </c>
+      <c r="O59" s="26">
+        <v>0</v>
+      </c>
+      <c r="P59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>75</v>
+      </c>
+      <c r="T59">
+        <v>50</v>
+      </c>
+      <c r="U59">
+        <v>60</v>
+      </c>
+      <c r="V59" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Y59" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z59" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA59" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB59" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC59" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD59" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE59" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF59" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI59" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ59">
+        <v>30</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL59">
+        <v>5</v>
+      </c>
+      <c r="AM59">
+        <v>200</v>
+      </c>
+      <c r="AN59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ59" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR59">
+        <v>200</v>
+      </c>
+      <c r="AS59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT59" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU59" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV59" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY59" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>500</v>
+      </c>
+      <c r="I60" t="s">
+        <v>109</v>
+      </c>
+      <c r="J60" t="s">
+        <v>109</v>
+      </c>
+      <c r="K60" t="s">
+        <v>204</v>
+      </c>
+      <c r="L60" t="s">
+        <v>167</v>
+      </c>
+      <c r="M60" t="s">
+        <v>211</v>
+      </c>
+      <c r="N60" t="s">
+        <v>198</v>
+      </c>
+      <c r="O60" s="26">
+        <v>0</v>
+      </c>
+      <c r="P60" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R60">
+        <v>3</v>
+      </c>
+      <c r="S60">
+        <v>75</v>
+      </c>
+      <c r="T60">
+        <v>50</v>
+      </c>
+      <c r="U60">
+        <v>60</v>
+      </c>
+      <c r="V60" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z60" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA60" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB60" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC60" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD60" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE60" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF60" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI60" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ60">
+        <v>30</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL60">
+        <v>10</v>
+      </c>
+      <c r="AM60">
+        <v>200</v>
+      </c>
+      <c r="AN60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ60" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR60">
+        <v>200</v>
+      </c>
+      <c r="AS60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT60" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU60" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV60" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW60" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX60" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY60" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A61" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>500</v>
+      </c>
+      <c r="I61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J61" t="s">
+        <v>109</v>
+      </c>
+      <c r="K61" t="s">
+        <v>204</v>
+      </c>
+      <c r="L61" t="s">
+        <v>167</v>
+      </c>
+      <c r="M61" t="s">
+        <v>211</v>
+      </c>
+      <c r="N61" t="s">
+        <v>198</v>
+      </c>
+      <c r="O61" s="26">
+        <v>0</v>
+      </c>
+      <c r="P61" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>75</v>
+      </c>
+      <c r="T61">
+        <v>50</v>
+      </c>
+      <c r="U61">
+        <v>60</v>
+      </c>
+      <c r="V61" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>10</v>
+      </c>
+      <c r="Y61" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z61" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA61" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB61" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC61" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD61" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE61" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF61" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI61" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ61">
+        <v>30</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL61">
+        <v>5</v>
+      </c>
+      <c r="AM61">
+        <v>200</v>
+      </c>
+      <c r="AN61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ61" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>200</v>
+      </c>
+      <c r="AS61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT61" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU61" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV61" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW61" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX61" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY61" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="26"/>
+      <c r="AD62" s="26"/>
+      <c r="AE62" s="41"/>
+      <c r="AF62" s="26"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AN62" s="2"/>
+      <c r="AP62" s="2"/>
+      <c r="AQ62" s="17"/>
+      <c r="AS62" s="2"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="12"/>
+      <c r="AW62" s="18"/>
+      <c r="AX62" s="18"/>
+      <c r="AY62" s="18"/>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B63" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="26"/>
+      <c r="V63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="26"/>
+      <c r="AD63" s="26"/>
+      <c r="AE63" s="41"/>
+      <c r="AF63" s="26"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AN63" s="2"/>
+      <c r="AP63" s="2"/>
+      <c r="AQ63" s="17"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="18"/>
+      <c r="AX63" s="18"/>
+      <c r="AY63" s="18"/>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>500</v>
+      </c>
+      <c r="I64" t="s">
+        <v>109</v>
+      </c>
+      <c r="J64" t="s">
+        <v>109</v>
+      </c>
+      <c r="K64" t="s">
+        <v>204</v>
+      </c>
+      <c r="L64" t="s">
+        <v>167</v>
+      </c>
+      <c r="M64" t="s">
+        <v>211</v>
+      </c>
+      <c r="N64" t="s">
+        <v>198</v>
+      </c>
+      <c r="O64" s="26">
+        <v>0</v>
+      </c>
+      <c r="P64" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>75</v>
+      </c>
+      <c r="T64">
+        <v>50</v>
+      </c>
+      <c r="U64">
+        <v>60</v>
+      </c>
+      <c r="V64" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z64" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA64" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB64" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC64" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD64" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE64" s="41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AF64" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH64" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ64">
+        <v>30</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL64">
+        <v>5</v>
+      </c>
+      <c r="AM64">
+        <v>200</v>
+      </c>
+      <c r="AN64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ64" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR64">
+        <v>200</v>
+      </c>
+      <c r="AS64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT64" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU64" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV64" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW64" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY64" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>500</v>
+      </c>
+      <c r="I65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O65" s="26">
+        <v>0</v>
+      </c>
+      <c r="P65" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R65">
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>75</v>
+      </c>
+      <c r="T65">
+        <v>50</v>
+      </c>
+      <c r="U65">
+        <v>60</v>
+      </c>
+      <c r="V65" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Y65" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z65" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA65" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB65" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC65" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD65" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE65" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF65" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI65" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ65">
+        <v>30</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL65">
+        <v>5</v>
+      </c>
+      <c r="AM65">
+        <v>200</v>
+      </c>
+      <c r="AN65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ65" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR65">
+        <v>200</v>
+      </c>
+      <c r="AS65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT65" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU65" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV65" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW65" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX65" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY65" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN58" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN65" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI58" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI65" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH58" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH65" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS58" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS65" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P58 C6:D58" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P65 C6:D65" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="V6:V58 AB6:AB58" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="V6:V65 AB6:AB65" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X58" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X65" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AE6:AE58 Y6:AA58 AC6:AC58" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AE6:AE65 Y6:AA65 AC6:AC65" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ58" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ65" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU58" xr:uid="{00000000-0002-0000-0200-000009000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU65" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV58" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV65" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF58" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF65" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL58" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL65" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM58" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM65" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO58" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO65" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD58" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY58" xr:uid="{00000000-0002-0000-0200-000010000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD65" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY65" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP58" xr:uid="{00000000-0002-0000-0200-000011000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP65" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ58" xr:uid="{00000000-0002-0000-0200-000012000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ65" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S58" xr:uid="{00000000-0002-0000-0200-000013000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S65" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J58" xr:uid="{00000000-0002-0000-0200-000014000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J65" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -9514,37 +10236,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L58</xm:sqref>
+          <xm:sqref>L6:L65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M58</xm:sqref>
+          <xm:sqref>M6:M65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F58</xm:sqref>
+          <xm:sqref>F6:F65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E58</xm:sqref>
+          <xm:sqref>E6:E65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K58</xm:sqref>
+          <xm:sqref>K6:K65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N58</xm:sqref>
+          <xm:sqref>N6:N65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_penSimMacro/RunControl_M1_PenSimMacro.xlsx
+++ b/IO_penSimMacro/RunControl_M1_PenSimMacro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_penSimMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D74EF-A7BF-4707-BD4E-D0E72B567548}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69B0BF-D46E-4BA8-ACC7-87C77523D2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1445,10 +1453,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,13 +1462,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2147,10 +2155,10 @@
   <dimension ref="A1:AY65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22:C23"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,62 +2353,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="46" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="46" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="47" t="s">
+      <c r="AA4" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="49" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="44" t="s">
+      <c r="AH4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2408,17 +2416,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="49" t="s">
+      <c r="AP4" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="50" t="s">
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -2586,7 +2594,7 @@
         <v>356</v>
       </c>
       <c r="C6" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="11" t="b">
         <v>0</v>
@@ -2741,7 +2749,7 @@
         <v>356</v>
       </c>
       <c r="C7" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="11" t="b">
         <v>0</v>
@@ -2926,7 +2934,7 @@
         <v>357</v>
       </c>
       <c r="C9" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="11" t="b">
         <v>0</v>
@@ -3081,7 +3089,7 @@
         <v>357</v>
       </c>
       <c r="C10" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11" t="b">
         <v>0</v>
@@ -3266,7 +3274,7 @@
         <v>357</v>
       </c>
       <c r="C12" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11" t="b">
         <v>0</v>
@@ -3421,7 +3429,7 @@
         <v>357</v>
       </c>
       <c r="C13" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="11" t="b">
         <v>0</v>
@@ -3636,7 +3644,7 @@
         <v>356</v>
       </c>
       <c r="C16" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="11" t="b">
         <v>0</v>
@@ -3791,7 +3799,7 @@
         <v>356</v>
       </c>
       <c r="C17" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="11" t="b">
         <v>0</v>
@@ -3976,7 +3984,7 @@
         <v>357</v>
       </c>
       <c r="C19" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="11" t="b">
         <v>0</v>
@@ -4131,7 +4139,7 @@
         <v>357</v>
       </c>
       <c r="C20" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="11" t="b">
         <v>0</v>
@@ -4316,7 +4324,7 @@
         <v>357</v>
       </c>
       <c r="C22" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="11" t="b">
         <v>0</v>
@@ -4471,7 +4479,7 @@
         <v>357</v>
       </c>
       <c r="C23" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="11" t="b">
         <v>0</v>
@@ -6701,7 +6709,7 @@
         <v>248</v>
       </c>
       <c r="C39" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="11" t="b">
         <v>0</v>
@@ -10135,17 +10143,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN65" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -11613,18 +11621,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I39:I40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000015000000}">
-          <x14:formula1>
-            <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J39:J40</xm:sqref>
+          <xm:sqref>I39:J40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
